--- a/INFORMACION BACKEND.xlsx
+++ b/INFORMACION BACKEND.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="DRIVE" sheetId="1" r:id="rId1"/>
     <sheet name="REPOSITORIO" sheetId="2" r:id="rId2"/>
     <sheet name="Equipo" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="47">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -47,17 +47,183 @@
     <t>REPOSITORIO</t>
   </si>
   <si>
-    <t>Alumnx</t>
-  </si>
-  <si>
     <t>Correo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mB8ynsjrkq7WJljkp029Q-j6_oT5buZ1/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1Xbl_Sf_m-7Yp3V2-RT837c9e-pOJZhSJ?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://github.com/DevJumpProf/node.js</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Carolina</t>
+  </si>
+  <si>
+    <t>Beer</t>
+  </si>
+  <si>
+    <t>carolina.beer@arbusta.net</t>
+  </si>
+  <si>
+    <t>Natali Sofía Macarena</t>
+  </si>
+  <si>
+    <t>Lescano</t>
+  </si>
+  <si>
+    <t>natali.lescano@arbusta.net</t>
+  </si>
+  <si>
+    <t>Galo</t>
+  </si>
+  <si>
+    <t>Rodríguez</t>
+  </si>
+  <si>
+    <t>galo.rodriguez@arbusta.net</t>
+  </si>
+  <si>
+    <t>Camila Soledad</t>
+  </si>
+  <si>
+    <t>Aguirre</t>
+  </si>
+  <si>
+    <t>camila.aguirre@arbusta.net</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Aviles Bejarano</t>
+  </si>
+  <si>
+    <t>kevin.aviles@arbusta.net</t>
+  </si>
+  <si>
+    <t>Gonzalo Roman</t>
+  </si>
+  <si>
+    <t>Cataldo</t>
+  </si>
+  <si>
+    <t>gonzalo.cataldo@arbusta.net</t>
+  </si>
+  <si>
+    <t>Eyleen Alessandra</t>
+  </si>
+  <si>
+    <t>Godoy Guerrero</t>
+  </si>
+  <si>
+    <t>eyleen.godoy@arbusta.net</t>
+  </si>
+  <si>
+    <t>Victoria Nadia</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Maximiliano Ivan</t>
+  </si>
+  <si>
+    <t>Portel Beraud</t>
+  </si>
+  <si>
+    <t>maximiliano.portel@arbusta.net</t>
+  </si>
+  <si>
+    <t>Ezequiel Matías</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>ezequiel.rodriguez@arbusta.net</t>
+  </si>
+  <si>
+    <t>victoria.gonzalez@arbusta.net</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA CLIENTE SERVIDOR
+* ARQUITECTURA CLIENTE SERVIDOR
+* A QUÉ LLAMAMOS CLIENTE
+* A QUÉ LLAMAMOS SERVIDOR
+* FLUJO CLIENTE SERVIDOR
+* FRONT-END
+* BACK-END
+INTRODUCCIÓN A NODE JS
+* INTRODUCCIÓN A NODE JS
+* ARQUITECTURA NODE JS
+* PROBANDO NODE JS
+NODE PACKAGE MANAGER NPM
+* NODE PACKAGE MANAGER NPM
+* INTRODUCCIÓN A NPM
+* QUÉ SON LAS LIBRERÍAS
+* package.json
+* INSTALANDO LIBRERÍAS
+NODE MODULES
+* NODE MODULES
+* QUÉ ES UN MÓDULO
+* CÓMO REQUERIR UN MÓDULO
+* MÓDULO DE TERCEROS
+* MÓDULO CREADO
+INTRODUCCIÓN A HTTP
+* INTRODUCCIÓN A HTTP
+* COMPONENTES DE UNA URI
+* CÓMO VIAJA LA INFORMACIÓN
+* MÉTODOS DE PETICIÓN:
+* GET
+* POST
+* DELETE
+* PUT
+* PATCH
+* CÓDIGOS DE ESTADO HTTP</t>
+  </si>
+  <si>
+    <t>Repaso:
+Fundamentos
+* ¿Qué es Node.js?
+* Instalación
+* Primeros pasos
+* Exportaciones
+* package.json
+* NPM (Node Package Manager)
+* Servidor HTTP
+* ¿Servidor HTTP?
+* Verbos o métodos HTTP
+INTRODUCCIÓN A HTTP
+* HTTP EN NODE JS
+* CÓMO USAR HTTP
+* LEVANTAR EL SERVIDO
+* TESTEAR EL SERVIDOR
+* DEFINIENDO EL RESPONSE
+* TESTEAR EL SERVIDOR
+Practica:
+Servidor HTTP
+* Servidor HTTP
+* Módulo HTTP
+* Nodemon</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YN4E3lZeOTOpYIK376STLhxfK_1jf1cV/view?usp=sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -117,13 +283,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -158,6 +317,51 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Rubik"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Rubik"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -193,12 +397,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor rgb="FFEAD1DC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -390,12 +594,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -424,11 +648,11 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -437,29 +661,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -469,7 +693,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -479,28 +703,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -512,13 +733,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -740,11 +1006,11 @@
   </sheetPr>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F3:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="A3:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.81640625" customWidth="1"/>
     <col min="2" max="2" width="6.6328125" customWidth="1"/>
@@ -754,17 +1020,17 @@
     <col min="6" max="6" width="38.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -784,36 +1050,54 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="89" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+    <row r="3" spans="1:7" ht="89" customHeight="1">
+      <c r="A3" s="7">
+        <v>44742</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="38"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
+      <c r="F3" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="7">
+        <v>44743</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>46</v>
+      </c>
       <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="39"/>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="36"/>
       <c r="E5" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -825,7 +1109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -834,7 +1118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -843,7 +1127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -852,7 +1136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -861,7 +1145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -870,7 +1154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -879,7 +1163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -889,7 +1173,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -899,7 +1183,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -909,7 +1193,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -919,7 +1203,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="13"/>
       <c r="C17" s="8"/>
@@ -929,7 +1213,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -939,7 +1223,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -949,7 +1233,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -959,7 +1243,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -969,7 +1253,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="14.5">
       <c r="A22" s="7"/>
       <c r="B22" s="13"/>
       <c r="C22" s="8"/>
@@ -979,7 +1263,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14.5">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -989,7 +1273,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="14.5">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -999,7 +1283,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="14.5">
       <c r="A25" s="7"/>
       <c r="B25" s="13"/>
       <c r="C25" s="8"/>
@@ -1009,7 +1293,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="14.5">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1019,7 +1303,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="14.5">
       <c r="A27" s="7"/>
       <c r="B27" s="14"/>
       <c r="C27" s="8"/>
@@ -1029,7 +1313,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="14.5">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1039,7 +1323,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="14.5">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1049,7 +1333,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="14.5">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1059,7 +1343,7 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="14.5">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1069,7 +1353,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="14.5">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1079,7 +1363,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="14.5">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1089,7 +1373,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="14.5">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1099,7 +1383,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="14.5">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1109,7 +1393,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="14.5">
       <c r="A36" s="7"/>
       <c r="B36" s="13"/>
       <c r="C36" s="8"/>
@@ -1119,7 +1403,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="14.5">
       <c r="A37" s="7"/>
       <c r="B37" s="13"/>
       <c r="C37" s="8"/>
@@ -1129,7 +1413,7 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="14.5">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -1139,7 +1423,7 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="14.5">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -1149,7 +1433,7 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="14.5">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -1159,7 +1443,7 @@
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="14.5">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -1169,7 +1453,7 @@
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" thickBot="1">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -1179,7 +1463,7 @@
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="17"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -1188,7 +1472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="20"/>
       <c r="B44" s="21"/>
       <c r="C44" s="22"/>
@@ -1197,7 +1481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1">
       <c r="A45" s="25"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
@@ -1206,7 +1490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A46" s="25"/>
       <c r="B46" s="26"/>
       <c r="C46" s="24"/>
@@ -1215,7 +1499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A47" s="28"/>
       <c r="B47" s="29"/>
       <c r="C47" s="30"/>
@@ -1224,7 +1508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1">
       <c r="A48" s="32"/>
       <c r="B48" s="33"/>
       <c r="C48" s="34"/>
@@ -1233,7 +1517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
       <c r="A49" s="25"/>
       <c r="B49" s="26"/>
       <c r="C49" s="26"/>
@@ -1242,7 +1526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
       <c r="A50" s="7"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -1251,112 +1535,112 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
       <c r="E51" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
       <c r="E52" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
       <c r="E53" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
       <c r="E54" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
       <c r="E55" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
       <c r="E56" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1">
       <c r="E57" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1">
       <c r="E58" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1">
       <c r="E59" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1">
       <c r="E60" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1">
       <c r="E61" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1">
       <c r="E62" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1">
       <c r="E63" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1">
       <c r="E64" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:5" ht="15.75" customHeight="1">
       <c r="E65" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:5" ht="15.75" customHeight="1">
       <c r="E66" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:5" ht="15.75" customHeight="1">
       <c r="E67" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:5" ht="15.75" customHeight="1">
       <c r="E68" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:5" ht="15.75" customHeight="1">
       <c r="E69" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:5" ht="15.75" customHeight="1">
       <c r="E70" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:5" ht="15.75" customHeight="1">
       <c r="E71" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:5" ht="15.75" customHeight="1">
       <c r="E72" s="9" t="s">
         <v>5</v>
       </c>
@@ -1365,8 +1649,13 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1378,135 +1667,213 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="74.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A2" s="42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1">
       <c r="A4" s="15"/>
     </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1">
       <c r="A5" s="15"/>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1">
       <c r="A6" s="16"/>
     </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15.75" customHeight="1">
       <c r="A7" s="15"/>
     </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="15.75" customHeight="1">
       <c r="A8" s="15"/>
     </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="15.75" customHeight="1">
       <c r="A9" s="15"/>
     </row>
-    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="15.75" customHeight="1">
       <c r="A10" s="15"/>
     </row>
-    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="15.75" customHeight="1">
       <c r="A11" s="15"/>
     </row>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="15.75" customHeight="1">
       <c r="A12" s="15"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="32.1796875" customWidth="1"/>
+    <col min="3" max="3" width="35.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:3" ht="14.5">
+      <c r="A1" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="14.5">
+      <c r="A2" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.5">
+      <c r="A3" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="13">
+      <c r="A4" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.5">
+      <c r="A5" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14">
+      <c r="A6" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14">
+      <c r="A7" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14">
+      <c r="A8" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="13">
+      <c r="A9" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14">
+      <c r="A10" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14">
+      <c r="A11" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INFORMACION BACKEND.xlsx
+++ b/INFORMACION BACKEND.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="49">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -217,6 +217,20 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1YN4E3lZeOTOpYIK376STLhxfK_1jf1cV/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>* Express
+* Express Hello World
+* Rutas
+* Archivos Estáticos
+* Middleware
+Vistas
+* Motores de plantilla
+* EJS y Express
+* Rutas render</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uMFbQmU8SmOCyoXDicSUIs_X2n4xkGVK/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -619,7 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -727,12 +741,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -785,6 +793,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1007,7 +1018,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="A3:D4"/>
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1021,12 +1032,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -1060,7 +1071,7 @@
       <c r="C3" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="39" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -1080,7 +1091,7 @@
       <c r="C4" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="39" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -1089,10 +1100,18 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="36"/>
+      <c r="A5" s="57">
+        <v>44746</v>
+      </c>
+      <c r="B5" s="58">
+        <v>3</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>48</v>
+      </c>
       <c r="E5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1653,9 +1672,10 @@
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="F3" r:id="rId2"/>
     <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1681,7 +1701,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="40" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1738,123 +1758,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.5">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="43" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.5">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="46" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.5">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="49" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="48" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.5">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="49" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="51" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="52" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="51" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="54" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="51" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="51" t="s">
         <v>42</v>
       </c>
     </row>

--- a/INFORMACION BACKEND.xlsx
+++ b/INFORMACION BACKEND.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="51">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -231,6 +231,17 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1uMFbQmU8SmOCyoXDicSUIs_X2n4xkGVK/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Vistas
+* Motores de plantilla
+* EJS y Express
+* Rutas render
+* Include
+* CSS, JS, img, etc</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lo9VO0Q0-K_WC-R3jDW2ev_BvXHy_YE4/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -633,20 +644,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -738,12 +740,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -793,9 +789,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1018,7 +1044,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D5"/>
+      <selection activeCell="D6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1032,635 +1058,643 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="89" customHeight="1">
-      <c r="A3" s="7">
+      <c r="A3" s="55">
         <v>44742</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="56">
         <v>1</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="37" t="s">
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="7">
+      <c r="A4" s="55">
         <v>44743</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="56">
         <v>2</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="57">
+      <c r="A5" s="59">
         <v>44746</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="60">
         <v>3</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="E5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="34" customHeight="1">
+      <c r="A6" s="55">
+        <v>44747</v>
+      </c>
+      <c r="B6" s="56">
+        <v>4</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="9" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="9" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="9" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="9" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="9" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="9" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="14.5">
-      <c r="A22" s="7"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="9" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="14.5">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="9" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="14.5">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="9" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="14.5">
-      <c r="A25" s="7"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="9" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="14.5">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="9" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="14.5">
-      <c r="A27" s="7"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="9" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="14.5">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="9" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" ht="14.5">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="9" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="14.5">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="9" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="14.5">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="9" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="14.5">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="9" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="14.5">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="9" t="s">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" ht="14.5">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="9" t="s">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="14.5">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="9" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="14.5">
-      <c r="A36" s="7"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="9" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" ht="14.5">
-      <c r="A37" s="7"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="9" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="14.5">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="9" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" ht="14.5">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="9" t="s">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" ht="14.5">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="9" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" ht="14.5">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="9" t="s">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="15" thickBot="1">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="9" t="s">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="9" t="s">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="9" t="s">
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A45" s="25"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="9" t="s">
+      <c r="A45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A46" s="25"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="9" t="s">
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A47" s="28"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="9" t="s">
+      <c r="A47" s="25"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A48" s="32"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="9" t="s">
+      <c r="A48" s="29"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A49" s="25"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="9" t="s">
+      <c r="A49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A50" s="7"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="9" t="s">
+      <c r="A50" s="4"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1">
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="66" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="67" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="68" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="69" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="70" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="71" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="72" spans="5:5" ht="15.75" customHeight="1">
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1673,9 +1707,10 @@
     <hyperlink ref="F3" r:id="rId2"/>
     <hyperlink ref="D4" r:id="rId3"/>
     <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1696,12 +1731,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="35" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1709,31 +1744,31 @@
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A4" s="15"/>
+      <c r="A4" s="12"/>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A5" s="15"/>
+      <c r="A5" s="12"/>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A6" s="16"/>
+      <c r="A6" s="13"/>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A7" s="15"/>
+      <c r="A7" s="12"/>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A8" s="15"/>
+      <c r="A8" s="12"/>
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A9" s="15"/>
+      <c r="A9" s="12"/>
     </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A10" s="15"/>
+      <c r="A10" s="12"/>
     </row>
     <row r="11" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A11" s="15"/>
+      <c r="A11" s="12"/>
     </row>
     <row r="12" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A12" s="15"/>
+      <c r="A12" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1758,137 +1793,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.5">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="38" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.5">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="41" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.5">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="44" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="43" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.5">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="44" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="46" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="47" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="46" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="49" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="46" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="46" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/INFORMACION BACKEND.xlsx
+++ b/INFORMACION BACKEND.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="53">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -242,6 +242,14 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1lo9VO0Q0-K_WC-R3jDW2ev_BvXHy_YE4/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Repaso General +
+* Rutas 
+definicion de la primer evaluación : consiste en crear proyecto de cero: levantar el servidor , definir las rutas y vistas (con titulos y  vistas dinamicas)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Zi6nmh6cfKU4GwH0FnBpfJTCtDbfI2-T/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -644,7 +652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -785,42 +793,45 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1044,7 +1055,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="A6:D6"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1058,26 +1069,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="52" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1088,16 +1099,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="89" customHeight="1">
-      <c r="A3" s="55">
+      <c r="A3" s="53">
         <v>44742</v>
       </c>
-      <c r="B3" s="56">
+      <c r="B3" s="54">
         <v>1</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="56" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -1108,16 +1119,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="55">
+      <c r="A4" s="53">
         <v>44743</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="54">
         <v>2</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="56" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -1126,16 +1137,16 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="59">
+      <c r="A5" s="57">
         <v>44746</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="58">
         <v>3</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="59" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -1143,16 +1154,16 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="34" customHeight="1">
-      <c r="A6" s="55">
+      <c r="A6" s="53">
         <v>44747</v>
       </c>
-      <c r="B6" s="56">
+      <c r="B6" s="54">
         <v>4</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="60" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -1163,10 +1174,18 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7"/>
+      <c r="A7" s="4">
+        <v>44748</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>52</v>
+      </c>
       <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1708,9 +1727,10 @@
     <hyperlink ref="D4" r:id="rId3"/>
     <hyperlink ref="D5" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/INFORMACION BACKEND.xlsx
+++ b/INFORMACION BACKEND.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="55">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -251,6 +251,12 @@
   <si>
     <t>https://drive.google.com/file/d/1Zi6nmh6cfKU4GwH0FnBpfJTCtDbfI2-T/view?usp=sharing</t>
   </si>
+  <si>
+    <t>Presentacion del trabajo evaluativo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1e6jmUDdQPUKtS3_5j-TIm76WhJCS0ch2/view?usp=sharing</t>
+  </si>
 </sst>
 </file>
 
@@ -362,6 +368,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -373,28 +380,33 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -652,7 +664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -826,11 +838,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1055,7 +1076,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+      <selection activeCell="A8" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1069,12 +1090,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -1173,14 +1194,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A7" s="4">
         <v>44748</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="61" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -1190,11 +1211,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="7"/>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="64">
+        <v>44749</v>
+      </c>
+      <c r="B8" s="65">
+        <v>6</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>54</v>
+      </c>
       <c r="E8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1728,9 +1757,10 @@
     <hyperlink ref="D5" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
     <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/INFORMACION BACKEND.xlsx
+++ b/INFORMACION BACKEND.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="57">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -256,6 +256,35 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1e6jmUDdQPUKtS3_5j-TIm76WhJCS0ch2/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Intensificacion : 
+* Introducción a Express
+* QUÉ ES UN FRAMEWORK
+* CÓMO USAR EXPRESS
+SERVIDOR HTTP EN EXPRESS
+Temas Nuevos
+* Routing + Response --_ Rutas en Express:
+* DEFINIENDO UNA RUTA
+* Routing + Response--_ Rutas Parametrizadas
+* Routing + Response--_Sistema de ruteo :
+* ARQUITECTURA DE ARCHIVOS
+* SISTEMA DE RUTEO
+MVC
+* INTRODUCCIÓN A MVC
+* QUE ES UN PATRÓN DE DISEÑO
+* LAS VISTAS
+* LOS MODELOS
+* LOS CONTROLADORES
+* EJEMPLO FLUJO MVC
+LOS CONTROLADORES
+* LOS CONTROLADORES
+* ARQUITECTURA DE ARCHIVOS
+* CREANDO UN CONTROLADOR
+* IMPLEMENTAR UN CONTROLADOR</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Gy6s9QH53Nb2euV_QIDcAVKgKZPBpTRU/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -841,19 +870,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1076,7 +1105,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D8"/>
+      <selection activeCell="A9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1090,12 +1119,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -1212,27 +1241,35 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="64">
+      <c r="A8" s="62">
         <v>44749</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="63">
         <v>6</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="64" t="s">
         <v>54</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7"/>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A9" s="62">
+        <v>44753</v>
+      </c>
+      <c r="B9" s="63">
+        <v>7</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>56</v>
+      </c>
       <c r="E9" s="6" t="s">
         <v>5</v>
       </c>
@@ -1758,9 +1795,10 @@
     <hyperlink ref="D6" r:id="rId5"/>
     <hyperlink ref="D7" r:id="rId6"/>
     <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/INFORMACION BACKEND.xlsx
+++ b/INFORMACION BACKEND.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="59">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -285,6 +285,48 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1Gy6s9QH53Nb2euV_QIDcAVKgKZPBpTRU/view?usp=sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">express-generator
+* express-generator
+* QUÉ TRAE EXPRESS-GENERATOR
+* ESTRUCTURA DE ARCHIVOS
+* INSTALANDO EXPRESS-GENERATOR
+* MOTOR DE VISTAS
+* QUÉ ES NODEMON
+* LEVANTAR EL SERVIDOR
+Template engine
+* Template engine
+* INSTALACIÓN E IMPLEMENTACIÓN
+* USANDO UN TEMPLATE ENGINE
+* LAS VISTAS
+* .set()
+* __dirname
+Mi Primera Vista
+* RENDERIZAR UNA VISTA
+* .render()
+* RECURSOS ESTÁTICOS
+* REQUERIR UN RECURSO ESTÁTICO
+* PASO A PASO
+Tags de EJS
+* Tags de EJS
+* ESTRUCTURA BÁSICA
+* &lt;% … %&gt;
+* &lt;%= … %&gt;
+PARÁMETROS COMPARTIDOS
+* PARÁMETROS COMPARTIDOS
+* ¿CÓMO MUESTRO UNA VISTA?
+* EL OBJETO COMO PARÁMETRO
+Plantillas Personalizadas
+* Plantillas Personalizadas
+* CÓMO MODULARIZAR
+* PARTIENDO EL CÓDIGO
+* REUTILIZANDO EL CÓDIGO
+* ¿POR QUÉ MODULARIZAR?
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1XCxS9cWbgOF30mUU6G0eoCoTpyHGE23l/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1104,8 +1146,8 @@
   </sheetPr>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1275,10 +1317,18 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="4">
+        <v>44754</v>
+      </c>
+      <c r="B10" s="5">
+        <v>8</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>58</v>
+      </c>
       <c r="E10" s="6" t="s">
         <v>5</v>
       </c>
@@ -1796,9 +1846,10 @@
     <hyperlink ref="D7" r:id="rId6"/>
     <hyperlink ref="D8" r:id="rId7"/>
     <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/INFORMACION BACKEND.xlsx
+++ b/INFORMACION BACKEND.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="61">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -327,6 +327,16 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1XCxS9cWbgOF30mUU6G0eoCoTpyHGE23l/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>REPASO DE Clase anterior + 
+Rutas parametrizadas
+Comienzo de TP heroes (trabajamos con JSON.
+Conocimos JSON.parse y JSON.stringify
+fs.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SGt-7xqAeXE1yQQnPuSs7fk1o9H29c3M/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1146,8 +1156,8 @@
   </sheetPr>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1334,10 +1344,18 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="9"/>
+      <c r="A11" s="4">
+        <v>44755</v>
+      </c>
+      <c r="B11" s="5">
+        <v>9</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>60</v>
+      </c>
       <c r="E11" s="6" t="s">
         <v>5</v>
       </c>
@@ -1847,9 +1865,10 @@
     <hyperlink ref="D8" r:id="rId7"/>
     <hyperlink ref="D9" r:id="rId8"/>
     <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/INFORMACION BACKEND.xlsx
+++ b/INFORMACION BACKEND.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="65">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -337,6 +337,21 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1SGt-7xqAeXE1yQQnPuSs7fk1o9H29c3M/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Rutas parametrizadas (optativas y obligatorias)
+continuamos TP heroes (trabajamos con JSON.
+Conocimos JSON.parse y JSON.stringify
+fs.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1G8nRKHf-cL2KOBywZe39p-LbdTbH3MBE/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Repaso GRal, mas nuevo ejercicio donde cada uno levanto un servidor, utulizao express generator , usaron router y controllers ,t ambien se armó un json y realizo una vista</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Xj0zJoYzzXCN9JU5JSI6DiIckINtj7yc/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -528,7 +543,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -740,12 +755,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -931,10 +976,27 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1156,8 +1218,8 @@
   </sheetPr>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1171,12 +1233,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -1360,20 +1422,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="7"/>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="65">
+        <v>44756</v>
+      </c>
+      <c r="B12" s="66">
+        <v>10</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>62</v>
+      </c>
       <c r="E12" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="7"/>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A13" s="71">
+        <v>44757</v>
+      </c>
+      <c r="B13" s="72">
+        <v>11</v>
+      </c>
+      <c r="C13" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>64</v>
+      </c>
       <c r="E13" s="6" t="s">
         <v>5</v>
       </c>
@@ -1866,9 +1944,11 @@
     <hyperlink ref="D9" r:id="rId8"/>
     <hyperlink ref="D10" r:id="rId9"/>
     <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/INFORMACION BACKEND.xlsx
+++ b/INFORMACION BACKEND.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="67">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1Xj0zJoYzzXCN9JU5JSI6DiIckINtj7yc/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>corregimos TP, creamos dinamicas en grupo (simulacion entorno cliente ) repasamos consignas par la evaluacion2)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sXGqks0ZSPDTVl2ezZAa-ONjFh4a-fBA/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -790,7 +796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -984,19 +990,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1219,7 +1226,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D13"/>
+      <selection activeCell="A14" sqref="A14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1233,12 +1240,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -1440,16 +1447,16 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="71">
+      <c r="A13" s="69">
         <v>44757</v>
       </c>
-      <c r="B13" s="72">
+      <c r="B13" s="70">
         <v>11</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="71" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -1458,10 +1465,18 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="65">
+        <v>44760</v>
+      </c>
+      <c r="B14" s="66">
+        <v>12</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>66</v>
+      </c>
       <c r="E14" s="6" t="s">
         <v>5</v>
       </c>
@@ -1946,9 +1961,10 @@
     <hyperlink ref="D11" r:id="rId10"/>
     <hyperlink ref="D12" r:id="rId11"/>
     <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
